--- a/tools/11.xlsx
+++ b/tools/11.xlsx
@@ -28,38 +28,1038 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Employment Information</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Date of Entry</t>
-  </si>
-  <si>
-    <t>Employment Status</t>
-  </si>
-  <si>
-    <t>Evergreen Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Innovation Development Department</t>
-  </si>
-  <si>
-    <t>March 5th, 2021
-full-time</t>
-  </si>
-  <si>
-    <t>gfersg</t>
-  </si>
-  <si>
-    <t>1
-2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29-132</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别</t>
+    </r>
+  </si>
+  <si>
+    <t>开发井</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+  </si>
+  <si>
+    <t>定向井</t>
+  </si>
+  <si>
+    <t>地理位置</t>
+  </si>
+  <si>
+    <t>陕西省延安市安塞区沿河湾镇白家沟村</t>
+  </si>
+  <si>
+    <t>构造位置</t>
+  </si>
+  <si>
+    <t>鄂尔多斯盆地伊陕斜坡</t>
+  </si>
+  <si>
+    <t>井位坐标</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4073162.58         Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19357324.49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（计算）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地面海拔（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1272.53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（参照高桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28-133</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复测）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补心海拔（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>目的层</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段、山</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段、本溪组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计垂深（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>完钻层位</t>
+  </si>
+  <si>
+    <t>马家沟组</t>
+  </si>
+  <si>
+    <t>完井方式</t>
+  </si>
+  <si>
+    <t>套管完井</t>
+  </si>
+  <si>
+    <t>完钻原则</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻穿本溪组目的层，钻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口袋完钻。钻口袋过程中若发现含气显示，则应请示项目组决定是否加深。</t>
+    </r>
+  </si>
+  <si>
+    <t>井号</t>
+  </si>
+  <si>
+    <t>井型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>井 段中深(m)</t>
+    </r>
+  </si>
+  <si>
+    <t>层位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>料</t>
+    </r>
+  </si>
+  <si>
+    <t>地层压力(MPa)</t>
+  </si>
+  <si>
+    <t>测压时间(h:min)</t>
+  </si>
+  <si>
+    <t>油压(MPa)</t>
+  </si>
+  <si>
+    <t>套压(MPa)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25-127</t>
+    </r>
+  </si>
+  <si>
+    <t>斜井</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25-128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斜井</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本溪组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26-126</t>
+    </r>
+  </si>
+  <si>
+    <t>靶心坐标</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4072485          Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19357938</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>靶区半径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行油田公司标准（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大门方向（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>靶点位移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>靶点方位（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中靶垂深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>靶心海拔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
   </si>
   <si>
     <t>proposition</t>
@@ -108,7 +1108,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,9 +1130,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -280,6 +1297,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -481,7 +1512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -490,117 +1521,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -721,137 +1701,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,47 +1841,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1219,162 +2217,357 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="3">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" ht="27" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="10">
+        <v>1282.03</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="12">
+        <v>3303</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="26.25" spans="1:8">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="27.75" spans="1:8">
+      <c r="A11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16">
-        <v>5</v>
-      </c>
-      <c r="B12" s="16">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="H11" s="15">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="12" ht="30.75" spans="1:8">
+      <c r="A12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3489</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="18">
+        <v>3.91</v>
+      </c>
+      <c r="H12" s="16">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="13" ht="30.75" spans="1:8">
+      <c r="A13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3136.5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="16">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" ht="27" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="10">
+        <v>324.46</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9">
+        <v>914.06</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="12">
+        <v>137.84</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3266</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="12">
+        <v>-1983.97</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A8:B11"/>
+  <mergeCells count="27">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1395,15 +2588,15 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1411,7 +2604,7 @@
     </row>
     <row r="3" ht="15" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1419,7 +2612,7 @@
     </row>
     <row r="4" ht="15" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1427,7 +2620,7 @@
     </row>
     <row r="5" ht="15" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1435,7 +2628,7 @@
     </row>
     <row r="6" ht="15" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1443,7 +2636,7 @@
     </row>
     <row r="7" ht="15" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1451,7 +2644,7 @@
     </row>
     <row r="8" ht="15" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1459,7 +2652,7 @@
     </row>
     <row r="9" ht="15" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1467,7 +2660,7 @@
     </row>
     <row r="10" ht="15" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1475,7 +2668,7 @@
     </row>
     <row r="11" ht="15" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>

--- a/tools/11.xlsx
+++ b/tools/11.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="24975"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
-    <sheet name="fact verification" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="fact verification" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,129 +29,2909 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Jack</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Health Condition</t>
-  </si>
-  <si>
-    <t>Hair color</t>
-  </si>
-  <si>
-    <t>Eye color</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>175cm</t>
-  </si>
-  <si>
-    <t>70kg</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>789 Oak Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Principal's Name</t>
-  </si>
-  <si>
-    <t>Mr. Johnson</t>
-  </si>
-  <si>
-    <t>School Information</t>
-  </si>
-  <si>
-    <t>School Name</t>
-  </si>
-  <si>
-    <t>Pinecrest High School</t>
-  </si>
-  <si>
-    <t>Contact Number of Mr.johnson</t>
-  </si>
-  <si>
-    <t>Teaching Building</t>
-  </si>
-  <si>
-    <t>North Wing</t>
-  </si>
-  <si>
-    <t>+1(555) 123-45EF</t>
-  </si>
-  <si>
-    <t>School Year</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
-    <t>Date of Enrollment</t>
-  </si>
-  <si>
-    <t>Grades</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	English</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="221">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>张伟</t>
+  </si>
+  <si>
+    <t>李强</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>刘洋</t>
+  </si>
+  <si>
+    <t>陈军</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1981</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年断面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1981</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年相比面积变化率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <t>全年</t>
+  </si>
+  <si>
+    <t>径流量(108m3）</t>
+  </si>
+  <si>
+    <t>三峡蓄水前</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2003-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距平百分率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距平百分率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距平百分率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>输沙量(104t)</t>
+  </si>
+  <si>
+    <t>计算时段</t>
+  </si>
+  <si>
+    <t>长江干流</t>
+  </si>
+  <si>
+    <t>嘉陵江</t>
+  </si>
+  <si>
+    <t>全河段</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>朝天门以下</t>
+  </si>
+  <si>
+    <t>朝天门以上</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2008.09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2008.12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2008.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009.6.11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009.6.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009.09.12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009.9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009.11.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2009.11.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010.06.11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010.06.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010.09.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010.09.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010.12.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试验性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010.12.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011.06.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011.06.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011.09.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011.09.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011.12.19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试验性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011.12.19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012.06.12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012.06.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012.09.08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012.09.08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012.10.15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试验性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012.10.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013.06.13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013.06.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013.09.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013.09.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013.12.09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013.12.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014.06.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014.06.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014.09.05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014.09.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014.12.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014.12.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015.06.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015.06.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015.09.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015.09.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015.12.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015.12.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016.06.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016.06.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016.10.04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016.10.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016.12.15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016.12.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017.06.14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017.06.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017.10.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017.10.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017.12.12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <t>2017.12.12~2018.06.10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <t>2018.06.10~2018.10.04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <t>2018.10.04~2018.12.13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <t>2018.12.13~2019.05.17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <t>2019.05.17~2019.10.10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <t>2019.10.10~2019.12.12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>019.12.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020.05.22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年消落期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>020.05.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020.10.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年汛期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>020.10.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020.12.13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2008.9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020.12.13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>175m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试验性蓄水期</t>
+    </r>
+  </si>
+  <si>
+    <t>宜宾</t>
+  </si>
+  <si>
+    <t>李庄</t>
+  </si>
+  <si>
+    <t>泸州</t>
+  </si>
+  <si>
+    <t>合江</t>
+  </si>
+  <si>
+    <t>朱沱</t>
+  </si>
+  <si>
+    <t>塔坪</t>
+  </si>
+  <si>
+    <t>洪峰流量（m3/s）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>最高洪水位（m）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高程转换关系（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>鞍钢</t>
+  </si>
+  <si>
+    <t>宝钢</t>
+  </si>
+  <si>
+    <t>鞍山钢铁</t>
+  </si>
+  <si>
+    <t>攀钢</t>
+  </si>
+  <si>
+    <t>国贸</t>
+  </si>
+  <si>
+    <t>矿业</t>
+  </si>
+  <si>
+    <t>仓储与厂内物流</t>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>2级</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>综合评价</t>
+  </si>
+  <si>
+    <t>规范级</t>
+  </si>
+  <si>
+    <t>优化级</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>物流项目</t>
+  </si>
+  <si>
+    <t>已建系统</t>
+  </si>
+  <si>
+    <t>覆盖范围</t>
+  </si>
+  <si>
+    <t>采购物流</t>
+  </si>
+  <si>
+    <t>港口原燃料系统</t>
+  </si>
+  <si>
+    <t>鞍山、鲅鱼圈</t>
+  </si>
+  <si>
+    <t>生产物流</t>
+  </si>
+  <si>
+    <t>冶金智慧物流系统</t>
+  </si>
+  <si>
+    <t>鞍山</t>
+  </si>
+  <si>
+    <t>铁运ERP系统</t>
+  </si>
+  <si>
+    <t>CIPS系统</t>
+  </si>
+  <si>
+    <t>鲅鱼圈</t>
+  </si>
+  <si>
+    <t>铁路MES</t>
+  </si>
+  <si>
+    <t>朝阳</t>
+  </si>
+  <si>
+    <t>储运ERP系统</t>
+  </si>
+  <si>
+    <t>鞍山、鲅鱼圈、朝阳</t>
+  </si>
+  <si>
+    <t>自助发货系统</t>
+  </si>
+  <si>
+    <t>销售物流</t>
+  </si>
+  <si>
+    <t>港口物流系统</t>
+  </si>
+  <si>
+    <t>销售物流系统</t>
+  </si>
+  <si>
+    <t>鞍山、鲅鱼圈、朝阳、莆田、鞍神</t>
+  </si>
+  <si>
+    <t>各环节物流</t>
+  </si>
+  <si>
+    <t>物流运输系统</t>
+  </si>
+  <si>
+    <t>鞍山、鲅鱼圈、朝阳、鞍神</t>
+  </si>
+  <si>
+    <t>采购和销售物流</t>
+  </si>
+  <si>
+    <t>协同平台（3PL、运输电子商务模块）</t>
+  </si>
+  <si>
+    <t>分区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11-12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>距平(%)</t>
+  </si>
+  <si>
+    <t>降雨量(mm)</t>
+  </si>
+  <si>
+    <t>金沙江</t>
+  </si>
+  <si>
+    <t>岷沱江</t>
+  </si>
+  <si>
+    <t>长上干区</t>
+  </si>
+  <si>
+    <t>乌江</t>
+  </si>
+  <si>
+    <t>汉江</t>
+  </si>
+  <si>
+    <t>长中干区</t>
+  </si>
+  <si>
+    <t>洞庭湖</t>
+  </si>
+  <si>
+    <t>长下干区</t>
+  </si>
+  <si>
+    <t>鄱阳湖</t>
+  </si>
+  <si>
+    <t>长江上游</t>
+  </si>
+  <si>
+    <t>长江中下游</t>
+  </si>
+  <si>
+    <t>长江流域</t>
+  </si>
+  <si>
+    <t>站名</t>
+  </si>
+  <si>
+    <t>统计年份</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>砾卵石推移量（万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>1975-2002</t>
+  </si>
+  <si>
+    <t>2003-2019</t>
+  </si>
+  <si>
+    <t>寸滩</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1966</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1968-2002</t>
+    </r>
+  </si>
+  <si>
+    <t>万县</t>
+  </si>
+  <si>
+    <t>1973-2002</t>
   </si>
   <si>
     <t>proposition</t>
@@ -199,7 +2980,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,24 +3002,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -385,8 +3276,41 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +3320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC8C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,12 +3516,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,6 +3577,69 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,137 +3761,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,41 +3901,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1219,233 +4341,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" ht="15" spans="1:5">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
-        <v>41336</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B3" s="44">
+        <v>75</v>
+      </c>
+      <c r="C3" s="44">
+        <v>30</v>
+      </c>
+      <c r="D3" s="44">
+        <v>33</v>
+      </c>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B4" s="44">
+        <v>46</v>
+      </c>
+      <c r="C4" s="44">
+        <v>90</v>
+      </c>
+      <c r="D4" s="44">
+        <v>46</v>
+      </c>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="B5" s="44">
+        <v>54</v>
+      </c>
+      <c r="C5" s="44">
+        <v>76</v>
+      </c>
+      <c r="D5" s="44">
+        <v>15</v>
+      </c>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="44">
+        <v>16</v>
+      </c>
+      <c r="C6" s="44">
+        <v>19</v>
+      </c>
+      <c r="D6" s="44">
+        <v>99</v>
+      </c>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="B7" s="44">
+        <v>36</v>
+      </c>
+      <c r="C7" s="44">
+        <v>97</v>
+      </c>
+      <c r="D7" s="44">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" ht="15.75" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="13">
-        <v>45170</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:9">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>90</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>88</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="H5:I7"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1454,6 +4464,2793 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O160"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:M142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="6">
+        <v>175</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12739</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="6">
+        <v>180</v>
+      </c>
+      <c r="B4" s="6">
+        <v>16824</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="6">
+        <v>185</v>
+      </c>
+      <c r="B5" s="6">
+        <v>21007</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="6">
+        <v>190</v>
+      </c>
+      <c r="B6" s="6">
+        <v>25301</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1.2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="6">
+        <v>195</v>
+      </c>
+      <c r="B7" s="6">
+        <v>29738</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="6">
+        <v>198</v>
+      </c>
+      <c r="B8" s="6">
+        <v>32540</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="11">
+        <v>114.3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>93.65</v>
+      </c>
+      <c r="E18" s="11">
+        <v>115.6</v>
+      </c>
+      <c r="F18" s="11">
+        <v>171.3</v>
+      </c>
+      <c r="G18" s="11">
+        <v>310.4</v>
+      </c>
+      <c r="H18" s="11">
+        <v>466.5</v>
+      </c>
+      <c r="I18" s="11">
+        <v>804</v>
+      </c>
+      <c r="J18" s="11">
+        <v>734.1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>657</v>
+      </c>
+      <c r="L18" s="11">
+        <v>483.2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>259.7</v>
+      </c>
+      <c r="N18" s="11">
+        <v>157.2</v>
+      </c>
+      <c r="O18" s="11">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9">
+        <v>159.8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>140.7</v>
+      </c>
+      <c r="E19" s="9">
+        <v>170.5</v>
+      </c>
+      <c r="F19" s="9">
+        <v>216.7</v>
+      </c>
+      <c r="G19" s="9">
+        <v>349.3</v>
+      </c>
+      <c r="H19" s="9">
+        <v>450.4</v>
+      </c>
+      <c r="I19" s="9">
+        <v>722.7</v>
+      </c>
+      <c r="J19" s="9">
+        <v>624.5</v>
+      </c>
+      <c r="K19" s="9">
+        <v>525.1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>347</v>
+      </c>
+      <c r="M19" s="9">
+        <v>240.7</v>
+      </c>
+      <c r="N19" s="9">
+        <v>167.5</v>
+      </c>
+      <c r="O19" s="9">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9">
+        <v>227.3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>171.5</v>
+      </c>
+      <c r="E20" s="9">
+        <v>229.9</v>
+      </c>
+      <c r="F20" s="9">
+        <v>273.2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>439.3</v>
+      </c>
+      <c r="H20" s="9">
+        <v>514.8</v>
+      </c>
+      <c r="I20" s="9">
+        <v>669.9</v>
+      </c>
+      <c r="J20" s="9">
+        <v>671.5</v>
+      </c>
+      <c r="K20" s="9">
+        <v>410.3</v>
+      </c>
+      <c r="L20" s="9">
+        <v>386.5</v>
+      </c>
+      <c r="M20" s="9">
+        <v>271.9</v>
+      </c>
+      <c r="N20" s="9">
+        <v>200.2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13">
+        <v>220.6</v>
+      </c>
+      <c r="D21" s="13">
+        <v>184.4</v>
+      </c>
+      <c r="E21" s="13">
+        <v>263.8</v>
+      </c>
+      <c r="F21" s="13">
+        <v>272.9</v>
+      </c>
+      <c r="G21" s="13">
+        <v>285.2</v>
+      </c>
+      <c r="H21" s="13">
+        <v>548.7</v>
+      </c>
+      <c r="I21" s="13">
+        <v>921.9</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1064</v>
+      </c>
+      <c r="K21" s="13">
+        <v>678.1</v>
+      </c>
+      <c r="L21" s="13">
+        <v>509.2</v>
+      </c>
+      <c r="M21" s="13">
+        <v>272.9</v>
+      </c>
+      <c r="N21" s="13">
+        <v>221.2</v>
+      </c>
+      <c r="O21" s="13">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="G22" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.55</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="G23" s="14">
+        <v>-0.18</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.28</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.29</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>-0.35</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.07</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.58</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11">
+        <v>55.6</v>
+      </c>
+      <c r="D25" s="11">
+        <v>29.3</v>
+      </c>
+      <c r="E25" s="11">
+        <v>81.2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>449</v>
+      </c>
+      <c r="G25" s="11">
+        <v>2110</v>
+      </c>
+      <c r="H25" s="11">
+        <v>5230</v>
+      </c>
+      <c r="I25" s="11">
+        <v>15500</v>
+      </c>
+      <c r="J25" s="11">
+        <v>12400</v>
+      </c>
+      <c r="K25" s="11">
+        <v>8630</v>
+      </c>
+      <c r="L25" s="11">
+        <v>3450</v>
+      </c>
+      <c r="M25" s="11">
+        <v>968</v>
+      </c>
+      <c r="N25" s="11">
+        <v>198</v>
+      </c>
+      <c r="O25" s="11">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5.51</v>
+      </c>
+      <c r="F26" s="9">
+        <v>9.42</v>
+      </c>
+      <c r="G26" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="H26" s="9">
+        <v>116</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1400</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1020</v>
+      </c>
+      <c r="K26" s="9">
+        <v>745</v>
+      </c>
+      <c r="L26" s="9">
+        <v>66.5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="N26" s="9">
+        <v>5.72</v>
+      </c>
+      <c r="O26" s="9">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4.55</v>
+      </c>
+      <c r="D27" s="9">
+        <v>3.73</v>
+      </c>
+      <c r="E27" s="9">
+        <v>6.94</v>
+      </c>
+      <c r="F27" s="9">
+        <v>6.38</v>
+      </c>
+      <c r="G27" s="9">
+        <v>23.3</v>
+      </c>
+      <c r="H27" s="9">
+        <v>61.9</v>
+      </c>
+      <c r="I27" s="9">
+        <v>200</v>
+      </c>
+      <c r="J27" s="9">
+        <v>482</v>
+      </c>
+      <c r="K27" s="9">
+        <v>45.9</v>
+      </c>
+      <c r="L27" s="9">
+        <v>29.7</v>
+      </c>
+      <c r="M27" s="9">
+        <v>9.59</v>
+      </c>
+      <c r="N27" s="9">
+        <v>4.29</v>
+      </c>
+      <c r="O27" s="9">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="D28" s="13">
+        <v>6.94</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5.44</v>
+      </c>
+      <c r="F28" s="13">
+        <v>6.74</v>
+      </c>
+      <c r="G28" s="13">
+        <v>8.04</v>
+      </c>
+      <c r="H28" s="13">
+        <v>91.5</v>
+      </c>
+      <c r="I28" s="13">
+        <v>779</v>
+      </c>
+      <c r="J28" s="13">
+        <v>3320</v>
+      </c>
+      <c r="K28" s="13">
+        <v>425</v>
+      </c>
+      <c r="L28" s="13">
+        <v>24</v>
+      </c>
+      <c r="M28" s="13">
+        <v>5.47</v>
+      </c>
+      <c r="N28" s="13">
+        <v>4.42</v>
+      </c>
+      <c r="O28" s="13">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="14">
+        <v>-0.9</v>
+      </c>
+      <c r="D29" s="14">
+        <v>-0.76</v>
+      </c>
+      <c r="E29" s="14">
+        <v>-0.93</v>
+      </c>
+      <c r="F29" s="14">
+        <v>-0.98</v>
+      </c>
+      <c r="G29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>-0.98</v>
+      </c>
+      <c r="I29" s="14">
+        <v>-0.95</v>
+      </c>
+      <c r="J29" s="14">
+        <v>-0.73</v>
+      </c>
+      <c r="K29" s="14">
+        <v>-0.95</v>
+      </c>
+      <c r="L29" s="14">
+        <v>-0.99</v>
+      </c>
+      <c r="M29" s="14">
+        <v>-0.99</v>
+      </c>
+      <c r="N29" s="14">
+        <v>-0.98</v>
+      </c>
+      <c r="O29" s="14">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="E30" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="F30" s="14">
+        <v>-0.28</v>
+      </c>
+      <c r="G30" s="14">
+        <v>-0.75</v>
+      </c>
+      <c r="H30" s="14">
+        <v>-0.21</v>
+      </c>
+      <c r="I30" s="14">
+        <v>-0.44</v>
+      </c>
+      <c r="J30" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="K30" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="L30" s="14">
+        <v>-0.64</v>
+      </c>
+      <c r="M30" s="14">
+        <v>-0.53</v>
+      </c>
+      <c r="N30" s="14">
+        <v>-0.23</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="E31" s="14">
+        <v>-0.22</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="G31" s="14">
+        <v>-0.65</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="I31" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="J31" s="14">
+        <v>5.89</v>
+      </c>
+      <c r="K31" s="14">
+        <v>8.26</v>
+      </c>
+      <c r="L31" s="14">
+        <v>-0.19</v>
+      </c>
+      <c r="M31" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="O31" s="14">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25" spans="1:6">
+      <c r="A39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:6">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:6">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" ht="39.75" spans="1:6">
+      <c r="A42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="18">
+        <v>-37.4</v>
+      </c>
+      <c r="C42" s="18">
+        <v>-24.6</v>
+      </c>
+      <c r="D42" s="18">
+        <v>-66.8</v>
+      </c>
+      <c r="E42" s="18">
+        <v>-128.8</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" ht="27.75" spans="1:6">
+      <c r="A43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="18">
+        <v>-33.5</v>
+      </c>
+      <c r="C43" s="18">
+        <v>-73.7</v>
+      </c>
+      <c r="D43" s="18">
+        <v>-18.2</v>
+      </c>
+      <c r="E43" s="18">
+        <v>-125.4</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" ht="40.5" spans="1:6">
+      <c r="A44" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="18">
+        <v>-59.9</v>
+      </c>
+      <c r="C44" s="18">
+        <v>42.6</v>
+      </c>
+      <c r="D44" s="18">
+        <v>57</v>
+      </c>
+      <c r="E44" s="18">
+        <v>39.7</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:6">
+      <c r="A45" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="18">
+        <v>41.6</v>
+      </c>
+      <c r="C45" s="18">
+        <v>-47.1</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-72.2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>-77.7</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:6">
+      <c r="A46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="18">
+        <v>16.1</v>
+      </c>
+      <c r="C46" s="18">
+        <v>70.4</v>
+      </c>
+      <c r="D46" s="18">
+        <v>94.3</v>
+      </c>
+      <c r="E46" s="18">
+        <v>180.8</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:6">
+      <c r="A47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="18">
+        <v>70.9</v>
+      </c>
+      <c r="C47" s="18">
+        <v>43</v>
+      </c>
+      <c r="D47" s="18">
+        <v>-154.3</v>
+      </c>
+      <c r="E47" s="18">
+        <v>-40.4</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="1:6">
+      <c r="A48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="18">
+        <v>43.8</v>
+      </c>
+      <c r="C48" s="18">
+        <v>22</v>
+      </c>
+      <c r="D48" s="18">
+        <v>139.3</v>
+      </c>
+      <c r="E48" s="18">
+        <v>205.1</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:6">
+      <c r="A49" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="18">
+        <v>-113.6</v>
+      </c>
+      <c r="C49" s="18">
+        <v>-84.8</v>
+      </c>
+      <c r="D49" s="18">
+        <v>-65.9</v>
+      </c>
+      <c r="E49" s="18">
+        <v>-264.3</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="1:6">
+      <c r="A50" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="18">
+        <v>-28.9</v>
+      </c>
+      <c r="C50" s="18">
+        <v>29.7</v>
+      </c>
+      <c r="D50" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E50" s="18">
+        <v>17.6</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" ht="40.5" spans="1:6">
+      <c r="A51" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="C51" s="18">
+        <v>53.8</v>
+      </c>
+      <c r="D51" s="18">
+        <v>19.4</v>
+      </c>
+      <c r="E51" s="18">
+        <v>85.7</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:6">
+      <c r="A52" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="18">
+        <v>-51.4</v>
+      </c>
+      <c r="C52" s="18">
+        <v>-178.1</v>
+      </c>
+      <c r="D52" s="18">
+        <v>-72.6</v>
+      </c>
+      <c r="E52" s="18">
+        <v>-302.1</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:6">
+      <c r="A53" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="18">
+        <v>166.7</v>
+      </c>
+      <c r="C53" s="18">
+        <v>30.8</v>
+      </c>
+      <c r="D53" s="18">
+        <v>91.8</v>
+      </c>
+      <c r="E53" s="18">
+        <v>289.3</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" ht="40.5" spans="1:6">
+      <c r="A54" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="18">
+        <v>-21.2</v>
+      </c>
+      <c r="C54" s="18">
+        <v>-105.6</v>
+      </c>
+      <c r="D54" s="18">
+        <v>18.9</v>
+      </c>
+      <c r="E54" s="18">
+        <v>-107.9</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" ht="40.5" spans="1:6">
+      <c r="A55" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="C55" s="18">
+        <v>-273</v>
+      </c>
+      <c r="D55" s="18">
+        <v>-57</v>
+      </c>
+      <c r="E55" s="18">
+        <v>-329.6</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:6">
+      <c r="A56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="18">
+        <v>-57.5</v>
+      </c>
+      <c r="C56" s="18">
+        <v>-28.6</v>
+      </c>
+      <c r="D56" s="18">
+        <v>-53.8</v>
+      </c>
+      <c r="E56" s="18">
+        <v>-139.9</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:6">
+      <c r="A57" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="18">
+        <v>-47.6</v>
+      </c>
+      <c r="C57" s="18">
+        <v>-137.3</v>
+      </c>
+      <c r="D57" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="E57" s="18">
+        <v>-176.8</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:6">
+      <c r="A58" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="18">
+        <v>-80.4</v>
+      </c>
+      <c r="C58" s="18">
+        <v>-151.2</v>
+      </c>
+      <c r="D58" s="18">
+        <v>-78</v>
+      </c>
+      <c r="E58" s="18">
+        <v>-309.6</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:6">
+      <c r="A59" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="18">
+        <v>108</v>
+      </c>
+      <c r="C59" s="18">
+        <v>40.2</v>
+      </c>
+      <c r="D59" s="18">
+        <v>-3.3</v>
+      </c>
+      <c r="E59" s="18">
+        <v>144.9</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:6">
+      <c r="A60" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="18">
+        <v>-89.2</v>
+      </c>
+      <c r="C60" s="18">
+        <v>-238.3</v>
+      </c>
+      <c r="D60" s="18">
+        <v>-7</v>
+      </c>
+      <c r="E60" s="18">
+        <v>-334.5</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" ht="40.5" spans="1:6">
+      <c r="A61" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="18">
+        <v>-37.3</v>
+      </c>
+      <c r="C61" s="18">
+        <v>-160.2</v>
+      </c>
+      <c r="D61" s="18">
+        <v>-53.7</v>
+      </c>
+      <c r="E61" s="18">
+        <v>-251.2</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:6">
+      <c r="A62" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="18">
+        <v>120.7</v>
+      </c>
+      <c r="C62" s="18">
+        <v>71.3</v>
+      </c>
+      <c r="D62" s="18">
+        <v>84.6</v>
+      </c>
+      <c r="E62" s="18">
+        <v>276.6</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" ht="40.5" spans="1:6">
+      <c r="A63" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="18">
+        <v>-55.1</v>
+      </c>
+      <c r="C63" s="18">
+        <v>-106.8</v>
+      </c>
+      <c r="D63" s="18">
+        <v>-46.6</v>
+      </c>
+      <c r="E63" s="18">
+        <v>-208.5</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" ht="40.5" spans="1:6">
+      <c r="A64" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="19">
+        <v>67.5</v>
+      </c>
+      <c r="C64" s="19">
+        <v>-21.1</v>
+      </c>
+      <c r="D64" s="19">
+        <v>-43.8</v>
+      </c>
+      <c r="E64" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" ht="40.5" spans="1:6">
+      <c r="A65" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="19">
+        <v>-100.5</v>
+      </c>
+      <c r="C65" s="19">
+        <v>-31</v>
+      </c>
+      <c r="D65" s="19">
+        <v>-1.4</v>
+      </c>
+      <c r="E65" s="19">
+        <v>-132.9</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:6">
+      <c r="A66" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="19">
+        <v>-42.6</v>
+      </c>
+      <c r="C66" s="19">
+        <v>54</v>
+      </c>
+      <c r="D66" s="19">
+        <v>22.6</v>
+      </c>
+      <c r="E66" s="19">
+        <v>34</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="1:6">
+      <c r="A67" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="19">
+        <v>25.6</v>
+      </c>
+      <c r="C67" s="19">
+        <v>-112.8</v>
+      </c>
+      <c r="D67" s="19">
+        <v>-17.2</v>
+      </c>
+      <c r="E67" s="19">
+        <v>-104.4</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" ht="40.5" spans="1:6">
+      <c r="A68" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="19">
+        <v>-8.2</v>
+      </c>
+      <c r="C68" s="19">
+        <v>-82.3</v>
+      </c>
+      <c r="D68" s="19">
+        <v>28.8</v>
+      </c>
+      <c r="E68" s="19">
+        <v>-61.7</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" ht="40.5" spans="1:6">
+      <c r="A69" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="19">
+        <v>40.4</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="19">
+        <v>-10.4</v>
+      </c>
+      <c r="E69" s="19">
+        <v>30.1</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" ht="41.25" spans="1:6">
+      <c r="A70" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="18">
+        <v>-37.7</v>
+      </c>
+      <c r="C70" s="18">
+        <v>-164.6</v>
+      </c>
+      <c r="D70" s="18">
+        <v>-41.8</v>
+      </c>
+      <c r="E70" s="18">
+        <v>-244.1</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" ht="41.25" spans="1:6">
+      <c r="A71" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="C71" s="18">
+        <v>-69.6</v>
+      </c>
+      <c r="D71" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="E71" s="18">
+        <v>-28.5</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" ht="41.25" spans="1:6">
+      <c r="A72" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="18">
+        <v>-7.7</v>
+      </c>
+      <c r="C72" s="18">
+        <v>-29.1</v>
+      </c>
+      <c r="D72" s="18">
+        <v>25.4</v>
+      </c>
+      <c r="E72" s="18">
+        <v>-11.4</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" ht="41.25" spans="1:6">
+      <c r="A73" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="18">
+        <v>2.3</v>
+      </c>
+      <c r="C73" s="18">
+        <v>-101.1</v>
+      </c>
+      <c r="D73" s="18">
+        <v>-40.6</v>
+      </c>
+      <c r="E73" s="18">
+        <v>-139.4</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" ht="41.25" spans="1:6">
+      <c r="A74" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="18">
+        <v>38</v>
+      </c>
+      <c r="C74" s="18">
+        <v>-67.6</v>
+      </c>
+      <c r="D74" s="18">
+        <v>-24.7</v>
+      </c>
+      <c r="E74" s="18">
+        <v>-54.3</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" ht="41.25" spans="1:6">
+      <c r="A75" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="18">
+        <v>44.4</v>
+      </c>
+      <c r="C75" s="18">
+        <v>-51.1</v>
+      </c>
+      <c r="D75" s="18">
+        <v>6.1</v>
+      </c>
+      <c r="E75" s="18">
+        <v>-0.6</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" ht="41.25" spans="1:6">
+      <c r="A76" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="18">
+        <v>17.9</v>
+      </c>
+      <c r="C76" s="18">
+        <v>40.8</v>
+      </c>
+      <c r="D76" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E76" s="18">
+        <v>59.4</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" ht="41.25" spans="1:6">
+      <c r="A77" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="C77" s="18">
+        <v>148.9</v>
+      </c>
+      <c r="D77" s="18">
+        <v>118.3</v>
+      </c>
+      <c r="E77" s="18">
+        <v>315.9</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" ht="41.25" spans="1:6">
+      <c r="A78" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="18">
+        <v>-76.2</v>
+      </c>
+      <c r="C78" s="18">
+        <v>-81.7</v>
+      </c>
+      <c r="D78" s="18">
+        <v>-25</v>
+      </c>
+      <c r="E78" s="18">
+        <v>-182.9</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" ht="27.75" spans="1:6">
+      <c r="A79" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="20">
+        <v>-105.8</v>
+      </c>
+      <c r="C79" s="20">
+        <v>-1773.7</v>
+      </c>
+      <c r="D79" s="20">
+        <v>-195.7</v>
+      </c>
+      <c r="E79" s="20">
+        <v>-2075.2</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:8">
+      <c r="A88" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="22">
+        <v>55800</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:8">
+      <c r="A89" s="21"/>
+      <c r="B89" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="22">
+        <v>43000</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="22">
+        <v>49600</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:8">
+      <c r="A90" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="22">
+        <v>279.84</v>
+      </c>
+      <c r="D90" s="22">
+        <v>272.57</v>
+      </c>
+      <c r="E90" s="22">
+        <v>244.23</v>
+      </c>
+      <c r="F90" s="22">
+        <v>225.87</v>
+      </c>
+      <c r="G90" s="22">
+        <v>217.04</v>
+      </c>
+      <c r="H90" s="22">
+        <v>198.81</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="1:8">
+      <c r="A91" s="21"/>
+      <c r="B91" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="22">
+        <v>278.77</v>
+      </c>
+      <c r="D91" s="22">
+        <v>271.1</v>
+      </c>
+      <c r="E91" s="22">
+        <v>242.67</v>
+      </c>
+      <c r="F91" s="22">
+        <v>223.16</v>
+      </c>
+      <c r="G91" s="22">
+        <v>214.68</v>
+      </c>
+      <c r="H91" s="22">
+        <v>198.77</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:8">
+      <c r="A92" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22">
+        <v>-1.455</v>
+      </c>
+      <c r="D92" s="22">
+        <v>-1.437</v>
+      </c>
+      <c r="E92" s="22">
+        <v>-1.458</v>
+      </c>
+      <c r="F92" s="22">
+        <v>-1.377</v>
+      </c>
+      <c r="G92" s="22">
+        <v>-1.381</v>
+      </c>
+      <c r="H92" s="22">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25"/>
+    <row r="97" ht="19.5" spans="1:6">
+      <c r="A97" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" ht="38.25" spans="1:6">
+      <c r="A98" s="23"/>
+      <c r="B98" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98" s="24"/>
+    </row>
+    <row r="99" ht="43.5" spans="1:6">
+      <c r="A99" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:6">
+      <c r="A100" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" ht="29.25" spans="1:6">
+      <c r="A101" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25"/>
+    <row r="105" ht="15" spans="1:4">
+      <c r="A105" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="30"/>
+    </row>
+    <row r="106" ht="29.25" spans="1:4">
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" ht="29.25" spans="1:4">
+      <c r="A107" s="33">
+        <v>1</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" ht="29.25" spans="1:4">
+      <c r="A108" s="33">
+        <v>2</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" ht="29.25" spans="1:4">
+      <c r="A109" s="33">
+        <v>3</v>
+      </c>
+      <c r="B109" s="34"/>
+      <c r="C109" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:4">
+      <c r="A110" s="33">
+        <v>4</v>
+      </c>
+      <c r="B110" s="34"/>
+      <c r="C110" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:4">
+      <c r="A111" s="33">
+        <v>5</v>
+      </c>
+      <c r="B111" s="34"/>
+      <c r="C111" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" ht="43.5" spans="1:4">
+      <c r="A112" s="33">
+        <v>6</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" ht="29.25" spans="1:4">
+      <c r="A113" s="33">
+        <v>7</v>
+      </c>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" ht="29.25" spans="1:4">
+      <c r="A114" s="33">
+        <v>8</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" ht="57.75" spans="1:4">
+      <c r="A115" s="33">
+        <v>9</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" ht="43.5" spans="1:4">
+      <c r="A116" s="33">
+        <v>10</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" ht="72" spans="1:4">
+      <c r="A117" s="33">
+        <v>11</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G128" s="36"/>
+      <c r="H128" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I128" s="37"/>
+      <c r="J128" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K128" s="36"/>
+      <c r="L128" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="M128" s="36"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="35"/>
+      <c r="B129" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G129" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H129" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I129" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J129" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="K129" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="L129" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M129" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="36">
+        <v>134.3</v>
+      </c>
+      <c r="C130" s="36">
+        <v>12.4</v>
+      </c>
+      <c r="D130" s="36">
+        <v>427.1</v>
+      </c>
+      <c r="E130" s="36">
+        <v>4</v>
+      </c>
+      <c r="F130" s="36">
+        <v>132.8</v>
+      </c>
+      <c r="G130" s="36">
+        <v>-12.6</v>
+      </c>
+      <c r="H130" s="36">
+        <v>4.8</v>
+      </c>
+      <c r="I130" s="36">
+        <v>-63.9</v>
+      </c>
+      <c r="J130" s="36">
+        <v>656.9</v>
+      </c>
+      <c r="K130" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="L130" s="36">
+        <v>699</v>
+      </c>
+      <c r="M130" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" s="36">
+        <v>186.8</v>
+      </c>
+      <c r="C131" s="36">
+        <v>-3.2</v>
+      </c>
+      <c r="D131" s="36">
+        <v>667.3</v>
+      </c>
+      <c r="E131" s="36">
+        <v>46.8</v>
+      </c>
+      <c r="F131" s="36">
+        <v>178</v>
+      </c>
+      <c r="G131" s="36">
+        <v>7.1</v>
+      </c>
+      <c r="H131" s="36">
+        <v>20.4</v>
+      </c>
+      <c r="I131" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="J131" s="36">
+        <v>982.5</v>
+      </c>
+      <c r="K131" s="36">
+        <v>27.9</v>
+      </c>
+      <c r="L131" s="36">
+        <v>1052.5</v>
+      </c>
+      <c r="M131" s="36">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" s="36">
+        <v>169.9</v>
+      </c>
+      <c r="C132" s="36">
+        <v>-18</v>
+      </c>
+      <c r="D132" s="36">
+        <v>692.9</v>
+      </c>
+      <c r="E132" s="36">
+        <v>53.3</v>
+      </c>
+      <c r="F132" s="36">
+        <v>162.1</v>
+      </c>
+      <c r="G132" s="36">
+        <v>-14.8</v>
+      </c>
+      <c r="H132" s="36">
+        <v>22.8</v>
+      </c>
+      <c r="I132" s="36">
+        <v>-31.9</v>
+      </c>
+      <c r="J132" s="36">
+        <v>969.3</v>
+      </c>
+      <c r="K132" s="36">
+        <v>21</v>
+      </c>
+      <c r="L132" s="36">
+        <v>1047.7</v>
+      </c>
+      <c r="M132" s="36">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="36">
+        <v>303.7</v>
+      </c>
+      <c r="C133" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="D133" s="36">
+        <v>653.5</v>
+      </c>
+      <c r="E133" s="36">
+        <v>33</v>
+      </c>
+      <c r="F133" s="36">
+        <v>272.8</v>
+      </c>
+      <c r="G133" s="36">
+        <v>37.2</v>
+      </c>
+      <c r="H133" s="36">
+        <v>49.8</v>
+      </c>
+      <c r="I133" s="36">
+        <v>-19.2</v>
+      </c>
+      <c r="J133" s="36">
+        <v>1107.2</v>
+      </c>
+      <c r="K133" s="36">
+        <v>22.3</v>
+      </c>
+      <c r="L133" s="36">
+        <v>1279.8</v>
+      </c>
+      <c r="M133" s="36">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="36">
+        <v>351.1</v>
+      </c>
+      <c r="C134" s="36">
+        <v>5.1</v>
+      </c>
+      <c r="D134" s="36">
+        <v>644.6</v>
+      </c>
+      <c r="E134" s="36">
+        <v>25.9</v>
+      </c>
+      <c r="F134" s="36">
+        <v>365.8</v>
+      </c>
+      <c r="G134" s="36">
+        <v>90.3</v>
+      </c>
+      <c r="H134" s="36">
+        <v>38</v>
+      </c>
+      <c r="I134" s="36">
+        <v>-40</v>
+      </c>
+      <c r="J134" s="36">
+        <v>1210.8</v>
+      </c>
+      <c r="K134" s="36">
+        <v>27.8</v>
+      </c>
+      <c r="L134" s="36">
+        <v>1399.5</v>
+      </c>
+      <c r="M134" s="36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="36">
+        <v>235.4</v>
+      </c>
+      <c r="C135" s="36">
+        <v>-1.5</v>
+      </c>
+      <c r="D135" s="36">
+        <v>572.5</v>
+      </c>
+      <c r="E135" s="36">
+        <v>36.9</v>
+      </c>
+      <c r="F135" s="36">
+        <v>182</v>
+      </c>
+      <c r="G135" s="36">
+        <v>10.3</v>
+      </c>
+      <c r="H135" s="36">
+        <v>51</v>
+      </c>
+      <c r="I135" s="36">
+        <v>9.2</v>
+      </c>
+      <c r="J135" s="36">
+        <v>853.8</v>
+      </c>
+      <c r="K135" s="36">
+        <v>14.3</v>
+      </c>
+      <c r="L135" s="36">
+        <v>1040.9</v>
+      </c>
+      <c r="M135" s="36">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" s="36">
+        <v>483.7</v>
+      </c>
+      <c r="C136" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="D136" s="36">
+        <v>976.1</v>
+      </c>
+      <c r="E136" s="36">
+        <v>78</v>
+      </c>
+      <c r="F136" s="36">
+        <v>313.9</v>
+      </c>
+      <c r="G136" s="36">
+        <v>96.2</v>
+      </c>
+      <c r="H136" s="36">
+        <v>83.8</v>
+      </c>
+      <c r="I136" s="36">
+        <v>-1.8</v>
+      </c>
+      <c r="J136" s="36">
+        <v>1481.8</v>
+      </c>
+      <c r="K136" s="36">
+        <v>47.9</v>
+      </c>
+      <c r="L136" s="36">
+        <v>1857.5</v>
+      </c>
+      <c r="M136" s="36">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="36">
+        <v>699.4</v>
+      </c>
+      <c r="C137" s="36">
+        <v>15.2</v>
+      </c>
+      <c r="D137" s="36">
+        <v>621.8</v>
+      </c>
+      <c r="E137" s="36">
+        <v>20</v>
+      </c>
+      <c r="F137" s="36">
+        <v>318.6</v>
+      </c>
+      <c r="G137" s="36">
+        <v>90.8</v>
+      </c>
+      <c r="H137" s="36">
+        <v>55.4</v>
+      </c>
+      <c r="I137" s="36">
+        <v>-50.8</v>
+      </c>
+      <c r="J137" s="36">
+        <v>1241.4</v>
+      </c>
+      <c r="K137" s="36">
+        <v>19.6</v>
+      </c>
+      <c r="L137" s="36">
+        <v>1695.2</v>
+      </c>
+      <c r="M137" s="36">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B138" s="36">
+        <v>473.2</v>
+      </c>
+      <c r="C138" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D138" s="36">
+        <v>968.7</v>
+      </c>
+      <c r="E138" s="36">
+        <v>70.3</v>
+      </c>
+      <c r="F138" s="36">
+        <v>226.1</v>
+      </c>
+      <c r="G138" s="36">
+        <v>64.4</v>
+      </c>
+      <c r="H138" s="36">
+        <v>87</v>
+      </c>
+      <c r="I138" s="36">
+        <v>-11.5</v>
+      </c>
+      <c r="J138" s="36">
+        <v>1348.9</v>
+      </c>
+      <c r="K138" s="36">
+        <v>44</v>
+      </c>
+      <c r="L138" s="36">
+        <v>1755</v>
+      </c>
+      <c r="M138" s="36">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="36">
+        <v>855</v>
+      </c>
+      <c r="C139" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="D139" s="36">
+        <v>747.5</v>
+      </c>
+      <c r="E139" s="36">
+        <v>26.3</v>
+      </c>
+      <c r="F139" s="36">
+        <v>226.4</v>
+      </c>
+      <c r="G139" s="36">
+        <v>60</v>
+      </c>
+      <c r="H139" s="36">
+        <v>56.6</v>
+      </c>
+      <c r="I139" s="36">
+        <v>-57.7</v>
+      </c>
+      <c r="J139" s="36">
+        <v>1337.2</v>
+      </c>
+      <c r="K139" s="36">
+        <v>13</v>
+      </c>
+      <c r="L139" s="36">
+        <v>1885.5</v>
+      </c>
+      <c r="M139" s="36">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B140" s="36">
+        <v>188.9</v>
+      </c>
+      <c r="C140" s="36">
+        <v>1</v>
+      </c>
+      <c r="D140" s="36">
+        <v>555.5</v>
+      </c>
+      <c r="E140" s="36">
+        <v>25.3</v>
+      </c>
+      <c r="F140" s="36">
+        <v>182.8</v>
+      </c>
+      <c r="G140" s="36">
+        <v>7.6</v>
+      </c>
+      <c r="H140" s="36">
+        <v>18.9</v>
+      </c>
+      <c r="I140" s="36">
+        <v>-33</v>
+      </c>
+      <c r="J140" s="36">
+        <v>864.2</v>
+      </c>
+      <c r="K140" s="36">
+        <v>14.7</v>
+      </c>
+      <c r="L140" s="36">
+        <v>946.1</v>
+      </c>
+      <c r="M140" s="36">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="36">
+        <v>579.1</v>
+      </c>
+      <c r="C141" s="36">
+        <v>6.8</v>
+      </c>
+      <c r="D141" s="36">
+        <v>735</v>
+      </c>
+      <c r="E141" s="36">
+        <v>39.9</v>
+      </c>
+      <c r="F141" s="36">
+        <v>258.1</v>
+      </c>
+      <c r="G141" s="36">
+        <v>65.4</v>
+      </c>
+      <c r="H141" s="36">
+        <v>63.2</v>
+      </c>
+      <c r="I141" s="36">
+        <v>-35.8</v>
+      </c>
+      <c r="J141" s="36">
+        <v>1231.3</v>
+      </c>
+      <c r="K141" s="36">
+        <v>24.3</v>
+      </c>
+      <c r="L141" s="36">
+        <v>1635.4</v>
+      </c>
+      <c r="M141" s="36">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" s="36">
+        <v>363.1</v>
+      </c>
+      <c r="C142" s="36">
+        <v>5</v>
+      </c>
+      <c r="D142" s="36">
+        <v>635.7</v>
+      </c>
+      <c r="E142" s="36">
+        <v>32.4</v>
+      </c>
+      <c r="F142" s="36">
+        <v>216.5</v>
+      </c>
+      <c r="G142" s="36">
+        <v>32.3</v>
+      </c>
+      <c r="H142" s="36">
+        <v>38.7</v>
+      </c>
+      <c r="I142" s="36">
+        <v>-35.1</v>
+      </c>
+      <c r="J142" s="36">
+        <v>1028.2</v>
+      </c>
+      <c r="K142" s="36">
+        <v>19.6</v>
+      </c>
+      <c r="L142" s="36">
+        <v>1254</v>
+      </c>
+      <c r="M142" s="36">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25"/>
+    <row r="151" ht="42.75" spans="1:3">
+      <c r="A151" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" spans="1:3">
+      <c r="A152" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C152" s="40">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" spans="1:3">
+      <c r="A153" s="39"/>
+      <c r="B153" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" s="40">
+        <v>9.54</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" spans="1:3">
+      <c r="A154" s="39"/>
+      <c r="B154" s="40">
+        <v>2020</v>
+      </c>
+      <c r="C154" s="40">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="155" ht="30.75" spans="1:3">
+      <c r="A155" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155" s="40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" spans="1:3">
+      <c r="A156" s="39"/>
+      <c r="B156" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C156" s="40">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" spans="1:3">
+      <c r="A157" s="39"/>
+      <c r="B157" s="40">
+        <v>2020</v>
+      </c>
+      <c r="C157" s="40">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" spans="1:3">
+      <c r="A158" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B158" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C158" s="41">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" spans="1:3">
+      <c r="A159" s="39"/>
+      <c r="B159" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" s="40">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" spans="1:3">
+      <c r="A160" s="39"/>
+      <c r="B160" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C160" s="40">
+        <v>0.000332</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F97:F98"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B11"/>
@@ -1466,15 +7263,15 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1482,7 +7279,7 @@
     </row>
     <row r="3" ht="15" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1490,7 +7287,7 @@
     </row>
     <row r="4" ht="15" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1498,7 +7295,7 @@
     </row>
     <row r="5" ht="15" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1506,7 +7303,7 @@
     </row>
     <row r="6" ht="15" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1514,7 +7311,7 @@
     </row>
     <row r="7" ht="15" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1522,7 +7319,7 @@
     </row>
     <row r="8" ht="15" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1530,7 +7327,7 @@
     </row>
     <row r="9" ht="15" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1538,7 +7335,7 @@
     </row>
     <row r="10" ht="15" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1546,7 +7343,7 @@
     </row>
     <row r="11" ht="15" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
